--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Calr-Itga3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H2">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J2">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N2">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P2">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q2">
-        <v>825.9500106586539</v>
+        <v>142.9118208447733</v>
       </c>
       <c r="R2">
-        <v>7433.550095927884</v>
+        <v>1286.20638760296</v>
       </c>
       <c r="S2">
-        <v>0.2631361760601161</v>
+        <v>0.09582568879165866</v>
       </c>
       <c r="T2">
-        <v>0.2631361760601161</v>
+        <v>0.09582568879165865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H3">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J3">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P3">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q3">
-        <v>12.115217941638</v>
+        <v>4.780391904202667</v>
       </c>
       <c r="R3">
-        <v>109.036961474742</v>
+        <v>43.023527137824</v>
       </c>
       <c r="S3">
-        <v>0.0038597397907354</v>
+        <v>0.00320536358858549</v>
       </c>
       <c r="T3">
-        <v>0.0038597397907354</v>
+        <v>0.003205363588585489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.883077</v>
+        <v>39.41161066666667</v>
       </c>
       <c r="H4">
-        <v>299.649231</v>
+        <v>118.234832</v>
       </c>
       <c r="I4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="J4">
-        <v>0.3917580942718377</v>
+        <v>0.2026411830173254</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P4">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q4">
-        <v>391.612145998003</v>
+        <v>154.5213252732605</v>
       </c>
       <c r="R4">
-        <v>3524.509313982027</v>
+        <v>1390.691927459344</v>
       </c>
       <c r="S4">
-        <v>0.1247621784209862</v>
+        <v>0.1036101306370812</v>
       </c>
       <c r="T4">
-        <v>0.1247621784209862</v>
+        <v>0.1036101306370812</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>372.048424</v>
       </c>
       <c r="I5">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J5">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N5">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P5">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q5">
-        <v>1025.510390074505</v>
+        <v>449.6992706537467</v>
       </c>
       <c r="R5">
-        <v>9229.593510670544</v>
+        <v>4047.293435883721</v>
       </c>
       <c r="S5">
-        <v>0.3267133350345648</v>
+        <v>0.3015337856922828</v>
       </c>
       <c r="T5">
-        <v>0.3267133350345649</v>
+        <v>0.3015337856922829</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>372.048424</v>
       </c>
       <c r="I6">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J6">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P6">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q6">
         <v>15.04241384688533</v>
@@ -818,10 +818,10 @@
         <v>135.381724621968</v>
       </c>
       <c r="S6">
-        <v>0.004792303659184746</v>
+        <v>0.01008628719056509</v>
       </c>
       <c r="T6">
-        <v>0.004792303659184747</v>
+        <v>0.01008628719056509</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>372.048424</v>
       </c>
       <c r="I7">
-        <v>0.4864119993789693</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="J7">
-        <v>0.4864119993789694</v>
+        <v>0.6376490878685519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P7">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q7">
         <v>486.2307880837342</v>
@@ -880,10 +880,10 @@
         <v>4376.077092753608</v>
       </c>
       <c r="S7">
-        <v>0.1549063606852197</v>
+        <v>0.326029014985704</v>
       </c>
       <c r="T7">
-        <v>0.1549063606852197</v>
+        <v>0.326029014985704</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J8">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.269168666666666</v>
+        <v>3.626135</v>
       </c>
       <c r="N8">
-        <v>24.807506</v>
+        <v>10.878405</v>
       </c>
       <c r="O8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="P8">
-        <v>0.671680253471746</v>
+        <v>0.4728835835086186</v>
       </c>
       <c r="Q8">
-        <v>256.8559882207197</v>
+        <v>112.6345980341683</v>
       </c>
       <c r="R8">
-        <v>2311.703893986478</v>
+        <v>1013.711382307515</v>
       </c>
       <c r="S8">
-        <v>0.08183074237706502</v>
+        <v>0.0755241090246771</v>
       </c>
       <c r="T8">
-        <v>0.08183074237706503</v>
+        <v>0.07552410902467711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J9">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.363882</v>
       </c>
       <c r="O9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="P9">
-        <v>0.009852354928133683</v>
+        <v>0.01581792773244636</v>
       </c>
       <c r="Q9">
         <v>3.767620602640667</v>
@@ -1004,10 +1004,10 @@
         <v>33.908585423766</v>
       </c>
       <c r="S9">
-        <v>0.001200311478213537</v>
+        <v>0.002526276953295777</v>
       </c>
       <c r="T9">
-        <v>0.001200311478213537</v>
+        <v>0.002526276953295777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>93.18566300000001</v>
       </c>
       <c r="I10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="J10">
-        <v>0.121829906349193</v>
+        <v>0.1597097291141227</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>11.762117</v>
       </c>
       <c r="O10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="P10">
-        <v>0.3184673916001203</v>
+        <v>0.511298488758935</v>
       </c>
       <c r="Q10">
         <v>121.7845189920634</v>
@@ -1066,10 +1066,10 @@
         <v>1096.060670928571</v>
       </c>
       <c r="S10">
-        <v>0.03879885249391442</v>
+        <v>0.08165934313614982</v>
       </c>
       <c r="T10">
-        <v>0.03879885249391443</v>
+        <v>0.08165934313614982</v>
       </c>
     </row>
   </sheetData>
